--- a/Code/Results/Cases/Case_6_28/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_28/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.83915805530926</v>
+        <v>20.98543163008409</v>
       </c>
       <c r="C2">
-        <v>14.23807492731905</v>
+        <v>14.46046826115461</v>
       </c>
       <c r="D2">
-        <v>2.853500788209701</v>
+        <v>6.199130541836356</v>
       </c>
       <c r="E2">
-        <v>6.924333843088126</v>
+        <v>8.389122180928329</v>
       </c>
       <c r="F2">
-        <v>39.61902282551656</v>
+        <v>22.03490725543938</v>
       </c>
       <c r="G2">
-        <v>2.101744143603998</v>
+        <v>2.085306241680521</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.995775832564254</v>
+        <v>5.647205497098734</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>14.57824691480416</v>
+        <v>15.1464207845363</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>29.52553032594533</v>
+        <v>15.61782592620763</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.35760538613923</v>
+        <v>19.58750385452869</v>
       </c>
       <c r="C3">
-        <v>13.23065964921651</v>
+        <v>13.57538552233769</v>
       </c>
       <c r="D3">
-        <v>2.829180038634921</v>
+        <v>6.008451963075581</v>
       </c>
       <c r="E3">
-        <v>6.880483747837094</v>
+        <v>8.296982157328415</v>
       </c>
       <c r="F3">
-        <v>38.22559362642554</v>
+        <v>21.76000366701741</v>
       </c>
       <c r="G3">
-        <v>2.112632245539039</v>
+        <v>2.091428210825452</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.014444764542622</v>
+        <v>5.702654522284953</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>13.87547312241124</v>
+        <v>14.31578794707413</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>28.5753502927789</v>
+        <v>15.59629551067871</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.40152521549838</v>
+        <v>18.6789663878415</v>
       </c>
       <c r="C4">
-        <v>12.57988679482287</v>
+        <v>13.00241721638827</v>
       </c>
       <c r="D4">
-        <v>2.814869059876321</v>
+        <v>5.890390295178264</v>
       </c>
       <c r="E4">
-        <v>6.856840062295577</v>
+        <v>8.244934886449871</v>
       </c>
       <c r="F4">
-        <v>37.38564568689217</v>
+        <v>21.61743535797323</v>
       </c>
       <c r="G4">
-        <v>2.119465573534919</v>
+        <v>2.095297333551795</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.028451096512886</v>
+        <v>5.739291619038371</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>13.43688203521617</v>
+        <v>13.78480861607703</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>28.00687471325531</v>
+        <v>15.60399927387046</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.0001049261037</v>
+        <v>18.2960333865959</v>
       </c>
       <c r="C5">
-        <v>12.30646527228114</v>
+        <v>12.76154072426135</v>
       </c>
       <c r="D5">
-        <v>2.809189655151499</v>
+        <v>5.842093589563433</v>
       </c>
       <c r="E5">
-        <v>6.848010474696796</v>
+        <v>8.224855276726295</v>
       </c>
       <c r="F5">
-        <v>37.04748678929985</v>
+        <v>21.56575954773497</v>
       </c>
       <c r="G5">
-        <v>2.122290093471223</v>
+        <v>2.096902556952218</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.034776998235439</v>
+        <v>5.754858267273119</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>13.2565734188517</v>
+        <v>13.56334068244819</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>27.77905200433332</v>
+        <v>15.61215306629931</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.93273231166256</v>
+        <v>18.23167878625257</v>
       </c>
       <c r="C6">
-        <v>12.26056346180222</v>
+        <v>12.72109865675581</v>
       </c>
       <c r="D6">
-        <v>2.808255702603779</v>
+        <v>5.834064642880401</v>
       </c>
       <c r="E6">
-        <v>6.846592407961016</v>
+        <v>8.221589039734578</v>
       </c>
       <c r="F6">
-        <v>36.99159131012787</v>
+        <v>21.55756120296452</v>
       </c>
       <c r="G6">
-        <v>2.122761585874339</v>
+        <v>2.097170848856466</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.035864148791622</v>
+        <v>5.757481142628734</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>13.2265446407081</v>
+        <v>13.52626486130441</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>27.7414564053343</v>
+        <v>15.61380254782753</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.39615951342178</v>
+        <v>18.67385352020852</v>
       </c>
       <c r="C7">
-        <v>12.5762328052149</v>
+        <v>12.99919851976092</v>
       </c>
       <c r="D7">
-        <v>2.814791852802682</v>
+        <v>5.889739615415509</v>
       </c>
       <c r="E7">
-        <v>6.856717747872092</v>
+        <v>8.244659522777667</v>
       </c>
       <c r="F7">
-        <v>37.38106816683357</v>
+        <v>21.61671268224554</v>
       </c>
       <c r="G7">
-        <v>2.11950350113168</v>
+        <v>2.095318865616363</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.02853393396905</v>
+        <v>5.739498996939005</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>13.43445642687053</v>
+        <v>13.78184215768066</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>28.00378657286597</v>
+        <v>15.60408926521996</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.33785788712828</v>
+        <v>20.51380092177924</v>
       </c>
       <c r="C8">
-        <v>13.89732659632361</v>
+        <v>14.16143562788346</v>
       </c>
       <c r="D8">
-        <v>2.844983159129448</v>
+        <v>6.133624531860709</v>
       </c>
       <c r="E8">
-        <v>6.908521620493488</v>
+        <v>8.356408363491283</v>
       </c>
       <c r="F8">
-        <v>39.13543452449061</v>
+        <v>21.93458143504988</v>
       </c>
       <c r="G8">
-        <v>2.105469321553419</v>
+        <v>2.087394724758278</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.00167165229469</v>
+        <v>5.66577723309741</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>14.33750974722953</v>
+        <v>14.86446777831926</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>29.19485049456744</v>
+        <v>15.60591276133517</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.78475252062556</v>
+        <v>23.72709182494822</v>
       </c>
       <c r="C9">
-        <v>16.23846527339403</v>
+        <v>16.20563059049679</v>
       </c>
       <c r="D9">
-        <v>2.909368408548061</v>
+        <v>6.601606417005566</v>
       </c>
       <c r="E9">
-        <v>7.037046103358474</v>
+        <v>8.61174836446023</v>
       </c>
       <c r="F9">
-        <v>42.6931911431682</v>
+        <v>22.77248644127113</v>
       </c>
       <c r="G9">
-        <v>2.078989644849137</v>
+        <v>2.072690947042647</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>5.97021891397629</v>
+        <v>5.542498349804411</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>16.11785442745478</v>
+        <v>16.89783123216244</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>31.64673900562758</v>
+        <v>15.78617831560347</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.10902792679932</v>
+        <v>25.85236688860784</v>
       </c>
       <c r="C10">
-        <v>17.8156414760611</v>
+        <v>17.56443018509751</v>
       </c>
       <c r="D10">
-        <v>2.960289232437801</v>
+        <v>6.936254700392301</v>
       </c>
       <c r="E10">
-        <v>7.149230350578837</v>
+        <v>8.821707532909292</v>
       </c>
       <c r="F10">
-        <v>45.37438173457324</v>
+        <v>23.52617486579638</v>
       </c>
       <c r="G10">
-        <v>2.059962899943389</v>
+        <v>2.062339285816329</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5.961632658523495</v>
+        <v>5.466016407282159</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>17.67097451189668</v>
+        <v>18.38793157099213</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>33.51854963625551</v>
+        <v>16.04020567318891</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.12424302855595</v>
+        <v>26.76927015638104</v>
       </c>
       <c r="C11">
-        <v>18.50442392658122</v>
+        <v>18.15179671199008</v>
       </c>
       <c r="D11">
-        <v>2.984381979449794</v>
+        <v>7.08600033842619</v>
       </c>
       <c r="E11">
-        <v>7.204444385775983</v>
+        <v>8.922120471561716</v>
       </c>
       <c r="F11">
-        <v>46.60936554472793</v>
+        <v>23.90017671414685</v>
       </c>
       <c r="G11">
-        <v>2.051346950315696</v>
+        <v>2.05771412461019</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>5.961274340480892</v>
+        <v>5.434559967876224</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>18.34897267559527</v>
+        <v>19.03169946417153</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>34.38625505585496</v>
+        <v>16.18489315368964</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.50291222920885</v>
+        <v>27.10940590811735</v>
       </c>
       <c r="C12">
-        <v>18.76133911897881</v>
+        <v>18.36982822051702</v>
       </c>
       <c r="D12">
-        <v>2.993654212410631</v>
+        <v>7.142313207228268</v>
       </c>
       <c r="E12">
-        <v>7.225983562313132</v>
+        <v>8.960851373590836</v>
       </c>
       <c r="F12">
-        <v>47.0793923954022</v>
+        <v>24.04635142341331</v>
       </c>
       <c r="G12">
-        <v>2.048084888391046</v>
+        <v>2.055973515013873</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5.961685872675306</v>
+        <v>5.423153864919046</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>18.60181172419904</v>
+        <v>19.27064397744809</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>34.71731590844918</v>
+        <v>16.24407550396088</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.42161077786259</v>
+        <v>27.03646464246252</v>
       </c>
       <c r="C13">
-        <v>18.70617815287942</v>
+        <v>18.32306595444706</v>
       </c>
       <c r="D13">
-        <v>2.991650370489262</v>
+        <v>7.130203175647913</v>
       </c>
       <c r="E13">
-        <v>7.22131614903195</v>
+        <v>8.952478516298502</v>
       </c>
       <c r="F13">
-        <v>46.97805470228142</v>
+        <v>24.01466679185627</v>
       </c>
       <c r="G13">
-        <v>2.048787492378939</v>
+        <v>2.056347924845218</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5.96157226973513</v>
+        <v>5.425587436514926</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>18.54752856115104</v>
+        <v>19.21939700799356</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>34.64590256783534</v>
+        <v>16.23113108618377</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.15551026735522</v>
+        <v>26.79739454848544</v>
       </c>
       <c r="C14">
-        <v>18.52563758319044</v>
+        <v>18.16982209639401</v>
       </c>
       <c r="D14">
-        <v>2.985141728713256</v>
+        <v>7.090641278445255</v>
       </c>
       <c r="E14">
-        <v>7.206203601787175</v>
+        <v>8.925292710856317</v>
       </c>
       <c r="F14">
-        <v>46.64798619677803</v>
+        <v>23.91211107688665</v>
       </c>
       <c r="G14">
-        <v>2.051078597633124</v>
+        <v>2.05757071372125</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5.961297003430567</v>
+        <v>5.433611286092988</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>18.36985092942891</v>
+        <v>19.0514541100165</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>34.41344081474993</v>
+        <v>16.18967297704403</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.99177355849559</v>
+        <v>26.65003879170959</v>
       </c>
       <c r="C15">
-        <v>18.41454858547878</v>
+        <v>18.07538499053694</v>
       </c>
       <c r="D15">
-        <v>2.981174893401439</v>
+        <v>7.066356416404491</v>
       </c>
       <c r="E15">
-        <v>7.197029821256333</v>
+        <v>8.908732714546666</v>
       </c>
       <c r="F15">
-        <v>46.44612449913589</v>
+        <v>23.84988695929008</v>
       </c>
       <c r="G15">
-        <v>2.052481883856557</v>
+        <v>2.05832108087261</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>5.96120082883799</v>
+        <v>5.43859280917427</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>18.2605160594625</v>
+        <v>18.94795641556811</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>34.27137989714987</v>
+        <v>16.16485649815401</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.04185741039435</v>
+        <v>25.79144945393185</v>
       </c>
       <c r="C16">
-        <v>17.77006838426839</v>
+        <v>17.52542797178764</v>
       </c>
       <c r="D16">
-        <v>2.958734631671961</v>
+        <v>6.926415303887305</v>
       </c>
       <c r="E16">
-        <v>7.145708566687061</v>
+        <v>8.815244096265234</v>
       </c>
       <c r="F16">
-        <v>45.29399218651385</v>
+        <v>23.50236589253424</v>
       </c>
       <c r="G16">
-        <v>2.060526348253223</v>
+        <v>2.062643136274858</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5.96173054136412</v>
+        <v>5.468141456412089</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>17.62610815583227</v>
+        <v>18.34517937043119</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>33.46218026417758</v>
+        <v>16.03135389186125</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.44852099155073</v>
+        <v>25.25202239124213</v>
       </c>
       <c r="C17">
-        <v>17.3674981384195</v>
+        <v>17.18018898528894</v>
       </c>
       <c r="D17">
-        <v>2.945215939715641</v>
+        <v>6.839902211479024</v>
       </c>
       <c r="E17">
-        <v>7.115315477892866</v>
+        <v>8.759148522038901</v>
       </c>
       <c r="F17">
-        <v>44.59119899151613</v>
+        <v>23.29720322064719</v>
       </c>
       <c r="G17">
-        <v>2.065468065639747</v>
+        <v>2.065315216878263</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5.962989279657606</v>
+        <v>5.487140729591362</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>17.22974763284045</v>
+        <v>17.96670954496264</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>32.96999718396811</v>
+        <v>15.95706446221935</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.10326703849676</v>
+        <v>24.93705561572761</v>
       </c>
       <c r="C18">
-        <v>17.1332365310286</v>
+        <v>16.97871909007914</v>
       </c>
       <c r="D18">
-        <v>2.937526649751812</v>
+        <v>6.789909745042467</v>
       </c>
       <c r="E18">
-        <v>7.098225747203148</v>
+        <v>8.727345076849288</v>
       </c>
       <c r="F18">
-        <v>44.18839472768103</v>
+        <v>23.18212731984287</v>
       </c>
       <c r="G18">
-        <v>2.06831445917028</v>
+        <v>2.066860098819289</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5.964044749953689</v>
+        <v>5.498380863150514</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>16.99907371129273</v>
+        <v>17.74581112441737</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>32.68841916336338</v>
+        <v>15.91706565021513</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.98567787114591</v>
+        <v>24.82960266181317</v>
       </c>
       <c r="C19">
-        <v>17.05344737804993</v>
+        <v>16.91000636344856</v>
       </c>
       <c r="D19">
-        <v>2.934937599162422</v>
+        <v>6.772944392531718</v>
       </c>
       <c r="E19">
-        <v>7.092505863017277</v>
+        <v>8.71665614204549</v>
       </c>
       <c r="F19">
-        <v>44.05225333287333</v>
+        <v>23.14366521800828</v>
       </c>
       <c r="G19">
-        <v>2.069279037977581</v>
+        <v>2.067384574151466</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5.964457979925833</v>
+        <v>5.502239453286408</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>16.92050245971743</v>
+        <v>17.67046505185176</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>32.59333813748304</v>
+        <v>15.90398526674174</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.51209289389429</v>
+        <v>25.30993132116417</v>
       </c>
       <c r="C20">
-        <v>17.41063183770963</v>
+        <v>17.21723994932056</v>
       </c>
       <c r="D20">
-        <v>2.94664599535222</v>
+        <v>6.849136003662867</v>
       </c>
       <c r="E20">
-        <v>7.118510144496347</v>
+        <v>8.765072241757851</v>
       </c>
       <c r="F20">
-        <v>44.66586430836103</v>
+        <v>23.31873953655914</v>
       </c>
       <c r="G20">
-        <v>2.064941626936755</v>
+        <v>2.065029952824249</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5.962820722277379</v>
+        <v>5.485085726068751</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>17.27221874066253</v>
+        <v>18.00733033943111</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>33.02223351416699</v>
+        <v>15.96468858152341</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.23382460679576</v>
+        <v>26.86780644387108</v>
       </c>
       <c r="C21">
-        <v>18.5787710681599</v>
+        <v>18.21495242225669</v>
       </c>
       <c r="D21">
-        <v>2.987049295994687</v>
+        <v>7.10227246949488</v>
       </c>
       <c r="E21">
-        <v>7.210625149107671</v>
+        <v>8.93325864457287</v>
       </c>
       <c r="F21">
-        <v>46.74486926457415</v>
+        <v>23.94211023071544</v>
       </c>
       <c r="G21">
-        <v>2.050405671542165</v>
+        <v>2.057211267033352</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>5.961362688614154</v>
+        <v>5.431240540039277</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>18.42214342795725</v>
+        <v>19.10091372350514</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>34.4816516092861</v>
+        <v>16.20172947039005</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.32559863867203</v>
+        <v>27.8447756077306</v>
       </c>
       <c r="C22">
-        <v>19.3195345646845</v>
+        <v>18.8414388469124</v>
       </c>
       <c r="D22">
-        <v>3.014332450553339</v>
+        <v>7.265411590479623</v>
       </c>
       <c r="E22">
-        <v>7.274521040321605</v>
+        <v>9.047298628820894</v>
       </c>
       <c r="F22">
-        <v>48.11756347960014</v>
+        <v>24.37605642119507</v>
       </c>
       <c r="G22">
-        <v>2.040906291929317</v>
+        <v>2.05216384256088</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>5.963619670290001</v>
+        <v>5.399011549010321</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>19.15103800151834</v>
+        <v>19.78747737285285</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>35.45004449668717</v>
+        <v>16.38233568027994</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.7458577655849</v>
+        <v>27.32708372449213</v>
       </c>
       <c r="C23">
-        <v>18.92617353194699</v>
+        <v>18.50939894925447</v>
       </c>
       <c r="D23">
-        <v>2.999684646499631</v>
+        <v>7.178561657509672</v>
       </c>
       <c r="E23">
-        <v>7.240069886205027</v>
+        <v>8.986055582182154</v>
       </c>
       <c r="F23">
-        <v>47.38357109362965</v>
+        <v>24.14200234177702</v>
       </c>
       <c r="G23">
-        <v>2.045978077335235</v>
+        <v>2.054852454352486</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5.962108020925934</v>
+        <v>5.415932459977738</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>18.7640141768025</v>
+        <v>19.4235988277437</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>34.93179162636872</v>
+        <v>16.28352888182494</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.48336494352822</v>
+        <v>25.28376578616757</v>
       </c>
       <c r="C24">
-        <v>17.39113988733966</v>
+        <v>17.20049851586828</v>
       </c>
       <c r="D24">
-        <v>2.945999210441582</v>
+        <v>6.844962197577448</v>
       </c>
       <c r="E24">
-        <v>7.117064642893567</v>
+        <v>8.76239273699667</v>
       </c>
       <c r="F24">
-        <v>44.63210426453224</v>
+        <v>23.30899401897008</v>
       </c>
       <c r="G24">
-        <v>2.065179612885998</v>
+        <v>2.065158893615592</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5.962895896323466</v>
+        <v>5.486013807104277</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>17.253026291862</v>
+        <v>17.98897599638181</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>32.99861316682216</v>
+        <v>15.96123328809384</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.88976844851356</v>
+        <v>22.89956405484812</v>
       </c>
       <c r="C25">
-        <v>15.63093269767471</v>
+        <v>15.67780614040041</v>
       </c>
       <c r="D25">
-        <v>2.891355279278042</v>
+        <v>6.476427105844765</v>
       </c>
       <c r="E25">
-        <v>6.999260056732312</v>
+        <v>8.538761055950255</v>
       </c>
       <c r="F25">
-        <v>41.71883476927309</v>
+        <v>22.52200641029815</v>
       </c>
       <c r="G25">
-        <v>2.086061611345512</v>
+        <v>2.076585034827379</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.976300858566487</v>
+        <v>5.573461043205992</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>15.59091152239736</v>
+        <v>16.31845949572245</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>30.97118826346279</v>
+        <v>15.71702254455928</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_28/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_28/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1211 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.98543163008409</v>
+        <v>20.88791807420989</v>
       </c>
       <c r="C2">
-        <v>14.46046826115461</v>
+        <v>15.73815614643171</v>
       </c>
       <c r="D2">
-        <v>6.199130541836356</v>
+        <v>7.030847497093926</v>
       </c>
       <c r="E2">
-        <v>8.389122180928329</v>
+        <v>8.722019320853668</v>
       </c>
       <c r="F2">
-        <v>22.03490725543938</v>
+        <v>18.35823512223981</v>
       </c>
       <c r="G2">
-        <v>2.085306241680521</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
+        <v>18.55732555020086</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>2.835899324659955</v>
       </c>
       <c r="J2">
-        <v>5.647205497098734</v>
+        <v>8.01830473653632</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>11.45758256924394</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>5.58814054129462</v>
       </c>
       <c r="M2">
-        <v>15.1464207845363</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>15.61782592620763</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>15.35682051077201</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>12.62528481530757</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.58750385452869</v>
+        <v>19.55168835773304</v>
       </c>
       <c r="C3">
-        <v>13.57538552233769</v>
+        <v>14.82233589255991</v>
       </c>
       <c r="D3">
-        <v>6.008451963075581</v>
+        <v>6.820246611537765</v>
       </c>
       <c r="E3">
-        <v>8.296982157328415</v>
+        <v>8.635185254619325</v>
       </c>
       <c r="F3">
-        <v>21.76000366701741</v>
+        <v>18.21044150762554</v>
       </c>
       <c r="G3">
-        <v>2.091428210825452</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
+        <v>18.34633391190719</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>2.678462962693093</v>
       </c>
       <c r="J3">
-        <v>5.702654522284953</v>
+        <v>8.098113800349655</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>11.76615298259404</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>5.647690577450465</v>
       </c>
       <c r="M3">
-        <v>14.31578794707413</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>15.59629551067871</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>14.49065760140203</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>12.68657908000782</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.6789663878415</v>
+        <v>18.68212887790099</v>
       </c>
       <c r="C4">
-        <v>13.00241721638827</v>
+        <v>14.234594739274</v>
       </c>
       <c r="D4">
-        <v>5.890390295178264</v>
+        <v>6.69125678977102</v>
       </c>
       <c r="E4">
-        <v>8.244934886449871</v>
+        <v>8.587339540670852</v>
       </c>
       <c r="F4">
-        <v>21.61743535797323</v>
+        <v>18.13492358963835</v>
       </c>
       <c r="G4">
-        <v>2.095297333551795</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
+        <v>18.23796827472453</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>2.579212667018829</v>
       </c>
       <c r="J4">
-        <v>5.739291619038371</v>
+        <v>8.151644950782497</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>11.96106574028499</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>5.686686503099301</v>
       </c>
       <c r="M4">
-        <v>13.78480861607703</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>15.60399927387046</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>13.93442345461848</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>12.73479686863007</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.2960333865959</v>
+        <v>18.31456640092726</v>
       </c>
       <c r="C5">
-        <v>12.76154072426135</v>
+        <v>14.00129977669083</v>
       </c>
       <c r="D5">
-        <v>5.842093589563433</v>
+        <v>6.640234523904059</v>
       </c>
       <c r="E5">
-        <v>8.224855276726295</v>
+        <v>8.569209114985963</v>
       </c>
       <c r="F5">
-        <v>21.56575954773497</v>
+        <v>18.10087745149776</v>
       </c>
       <c r="G5">
-        <v>2.096902556952218</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
+        <v>18.18616491339335</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2.53882506156735</v>
       </c>
       <c r="J5">
-        <v>5.754858267273119</v>
+        <v>8.172613390234718</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>12.03861196660882</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>5.702849197126122</v>
       </c>
       <c r="M5">
-        <v>13.56334068244819</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>15.61215306629931</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>13.70459824088274</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>12.75195227595791</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.23167878625257</v>
+        <v>18.25173439721053</v>
       </c>
       <c r="C6">
-        <v>12.72109865675581</v>
+        <v>13.97750883672102</v>
       </c>
       <c r="D6">
-        <v>5.834064642880401</v>
+        <v>6.633469854510228</v>
       </c>
       <c r="E6">
-        <v>8.221589039734578</v>
+        <v>8.566284025400828</v>
       </c>
       <c r="F6">
-        <v>21.55756120296452</v>
+        <v>18.08687099809014</v>
       </c>
       <c r="G6">
-        <v>2.097170848856466</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
+        <v>18.16218669073398</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>2.533172764518695</v>
       </c>
       <c r="J6">
-        <v>5.757481142628734</v>
+        <v>8.173781648351939</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>12.04760753322643</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>5.70516837359827</v>
       </c>
       <c r="M6">
-        <v>13.52626486130441</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>15.61380254782753</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>13.66952775473947</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>12.74879301709226</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.67385352020852</v>
+        <v>18.67441929120561</v>
       </c>
       <c r="C7">
-        <v>12.99919851976092</v>
+        <v>14.2724806984965</v>
       </c>
       <c r="D7">
-        <v>5.889739615415509</v>
+        <v>6.695149698095254</v>
       </c>
       <c r="E7">
-        <v>8.244659522777667</v>
+        <v>8.587103000398807</v>
       </c>
       <c r="F7">
-        <v>21.61671268224554</v>
+        <v>18.11110101810968</v>
       </c>
       <c r="G7">
-        <v>2.095318865616363</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
+        <v>18.19456144205994</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>2.581254514126573</v>
       </c>
       <c r="J7">
-        <v>5.739498996939005</v>
+        <v>8.145423290893618</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>11.95126167363121</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>5.685811712440233</v>
       </c>
       <c r="M7">
-        <v>13.78184215768066</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>15.60408926521996</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>13.94054947042803</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>12.7181945480653</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.51380092177924</v>
+        <v>20.43397165134856</v>
       </c>
       <c r="C8">
-        <v>14.16143562788346</v>
+        <v>15.47835663871709</v>
       </c>
       <c r="D8">
-        <v>6.133624531860709</v>
+        <v>6.964044238141934</v>
       </c>
       <c r="E8">
-        <v>8.356408363491283</v>
+        <v>8.690973520713822</v>
       </c>
       <c r="F8">
-        <v>21.93458143504988</v>
+        <v>18.27358352277535</v>
       </c>
       <c r="G8">
-        <v>2.087394724758278</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
+        <v>18.42452049672306</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>2.784919784953212</v>
       </c>
       <c r="J8">
-        <v>5.66577723309741</v>
+        <v>8.036244103799786</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>11.54843481378876</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>5.606730114511092</v>
       </c>
       <c r="M8">
-        <v>14.86446777831926</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>15.60591276133517</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>15.07459189760043</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>12.62190034940983</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.72709182494822</v>
+        <v>23.4998495473344</v>
       </c>
       <c r="C9">
-        <v>16.20563059049679</v>
+        <v>17.57239608914866</v>
       </c>
       <c r="D9">
-        <v>6.601606417005566</v>
+        <v>7.482973386335674</v>
       </c>
       <c r="E9">
-        <v>8.61174836446023</v>
+        <v>8.938347043879803</v>
       </c>
       <c r="F9">
-        <v>22.77248644127113</v>
+        <v>18.75762173823324</v>
       </c>
       <c r="G9">
-        <v>2.072690947042647</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
+        <v>19.12376590978618</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>3.161261163132135</v>
       </c>
       <c r="J9">
-        <v>5.542498349804411</v>
+        <v>7.87161401997303</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>10.82131243851413</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>5.473494321838391</v>
       </c>
       <c r="M9">
-        <v>16.89783123216244</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>15.78617831560347</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>17.21527689551006</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>12.55258922796803</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.85236688860784</v>
+        <v>25.51572580825924</v>
       </c>
       <c r="C10">
-        <v>17.56443018509751</v>
+        <v>19.00095912027362</v>
       </c>
       <c r="D10">
-        <v>6.936254700392301</v>
+        <v>7.862048377670086</v>
       </c>
       <c r="E10">
-        <v>8.821707532909292</v>
+        <v>9.147029339589666</v>
       </c>
       <c r="F10">
-        <v>23.52617486579638</v>
+        <v>19.18195884401498</v>
       </c>
       <c r="G10">
-        <v>2.062339285816329</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
+        <v>19.72868263666157</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>3.427814359335312</v>
       </c>
       <c r="J10">
-        <v>5.466016407282159</v>
+        <v>7.77324917829367</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>10.30839830644396</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>5.388152232116564</v>
       </c>
       <c r="M10">
-        <v>18.38793157099213</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>16.04020567318891</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>18.68281494170713</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>12.55537337758045</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.76927015638104</v>
+        <v>26.37894673093374</v>
       </c>
       <c r="C11">
-        <v>18.15179671199008</v>
+        <v>19.6730539022624</v>
       </c>
       <c r="D11">
-        <v>7.08600033842619</v>
+        <v>8.039078154809733</v>
       </c>
       <c r="E11">
-        <v>8.922120471561716</v>
+        <v>9.247909507129989</v>
       </c>
       <c r="F11">
-        <v>23.90017671414685</v>
+        <v>19.35808114883039</v>
       </c>
       <c r="G11">
-        <v>2.05771412461019</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
+        <v>19.96664770863937</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>3.550841595777147</v>
       </c>
       <c r="J11">
-        <v>5.434559967876224</v>
+        <v>7.724048216205281</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>10.06242162514757</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>5.350653855583425</v>
       </c>
       <c r="M11">
-        <v>19.03169946417153</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>16.18489315368964</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>19.32555520341572</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>12.54474417349592</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.10940590811735</v>
+        <v>26.70038821937683</v>
       </c>
       <c r="C12">
-        <v>18.36982822051702</v>
+        <v>19.89595054078174</v>
       </c>
       <c r="D12">
-        <v>7.142313207228268</v>
+        <v>8.102446423286629</v>
       </c>
       <c r="E12">
-        <v>8.960851373590836</v>
+        <v>9.286895211678543</v>
       </c>
       <c r="F12">
-        <v>24.04635142341331</v>
+        <v>19.44621236800032</v>
       </c>
       <c r="G12">
-        <v>2.055973515013873</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
+        <v>20.09401560277477</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>3.595038865193463</v>
       </c>
       <c r="J12">
-        <v>5.423153864919046</v>
+        <v>7.712068074091523</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>9.97995091537379</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>5.337845123892995</v>
       </c>
       <c r="M12">
-        <v>19.27064397744809</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>16.24407550396088</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>19.55858743087555</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>12.55742025784271</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.03646464246252</v>
+        <v>26.63182974098585</v>
       </c>
       <c r="C13">
-        <v>18.32306595444706</v>
+        <v>19.84271970967255</v>
       </c>
       <c r="D13">
-        <v>7.130203175647913</v>
+        <v>8.088144996098954</v>
       </c>
       <c r="E13">
-        <v>8.952478516298502</v>
+        <v>9.278450795296854</v>
       </c>
       <c r="F13">
-        <v>24.01466679185627</v>
+        <v>19.43085277137808</v>
       </c>
       <c r="G13">
-        <v>2.056347924845218</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
+        <v>20.07308084424807</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>3.58506016803083</v>
       </c>
       <c r="J13">
-        <v>5.425587436514926</v>
+        <v>7.715750264388775</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>9.999657474332432</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>5.340769449234894</v>
       </c>
       <c r="M13">
-        <v>19.21939700799356</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>16.23113108618377</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>19.50756291649611</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>12.55747011144195</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.79739454848544</v>
+        <v>26.40568596869945</v>
       </c>
       <c r="C14">
-        <v>18.16982209639401</v>
+        <v>19.68915919177488</v>
       </c>
       <c r="D14">
-        <v>7.090641278445255</v>
+        <v>8.044012372270959</v>
       </c>
       <c r="E14">
-        <v>8.925292710856317</v>
+        <v>9.251095535370455</v>
       </c>
       <c r="F14">
-        <v>23.91211107688665</v>
+        <v>19.36687275435436</v>
       </c>
       <c r="G14">
-        <v>2.05757071372125</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
+        <v>19.97989546007548</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>3.554275544557694</v>
       </c>
       <c r="J14">
-        <v>5.433611286092988</v>
+        <v>7.723529631048373</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>10.05645882747151</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>5.349669991924265</v>
       </c>
       <c r="M14">
-        <v>19.0514541100165</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>16.18967297704403</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>19.34437355292699</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>12.54696707238615</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.65003879170959</v>
+        <v>26.26552810355189</v>
       </c>
       <c r="C15">
-        <v>18.07538499053694</v>
+        <v>19.60537670557648</v>
       </c>
       <c r="D15">
-        <v>7.066356416404491</v>
+        <v>8.018270350924141</v>
       </c>
       <c r="E15">
-        <v>8.908732714546666</v>
+        <v>9.234469500059154</v>
       </c>
       <c r="F15">
-        <v>23.84988695929008</v>
+        <v>19.32061227607332</v>
       </c>
       <c r="G15">
-        <v>2.05832108087261</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
+        <v>19.91005410789922</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>3.536407834720017</v>
       </c>
       <c r="J15">
-        <v>5.43859280917427</v>
+        <v>7.726166612101366</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>10.08749134415573</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>5.35481499344159</v>
       </c>
       <c r="M15">
-        <v>18.94795641556811</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>16.16485649815401</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>19.24588491944634</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>12.53514329265593</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.79144945393185</v>
+        <v>25.45227173623969</v>
       </c>
       <c r="C16">
-        <v>17.52542797178764</v>
+        <v>19.04936962513712</v>
       </c>
       <c r="D16">
-        <v>6.926415303887305</v>
+        <v>7.861811448583092</v>
       </c>
       <c r="E16">
-        <v>8.815244096265234</v>
+        <v>9.140722442243607</v>
       </c>
       <c r="F16">
-        <v>23.50236589253424</v>
+        <v>19.10775611646514</v>
       </c>
       <c r="G16">
-        <v>2.062643136274858</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
+        <v>19.60072431686763</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>3.427336186047918</v>
       </c>
       <c r="J16">
-        <v>5.468141456412089</v>
+        <v>7.757596543658715</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>10.29204264363774</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>5.387565120841157</v>
       </c>
       <c r="M16">
-        <v>18.34517937043119</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>16.03135389186125</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>18.65832415557745</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>12.50823653574485</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.25202239124213</v>
+        <v>24.9404275809897</v>
       </c>
       <c r="C17">
-        <v>17.18018898528894</v>
+        <v>18.70124262115261</v>
       </c>
       <c r="D17">
-        <v>6.839902211479024</v>
+        <v>7.765370214797129</v>
       </c>
       <c r="E17">
-        <v>8.759148522038901</v>
+        <v>9.084702947681357</v>
       </c>
       <c r="F17">
-        <v>23.29720322064719</v>
+        <v>18.9819507744862</v>
       </c>
       <c r="G17">
-        <v>2.065315216878263</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
+        <v>19.41753124831324</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>3.360062891749752</v>
       </c>
       <c r="J17">
-        <v>5.487140729591362</v>
+        <v>7.778610248247871</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>10.41927827480938</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>5.408469539735389</v>
       </c>
       <c r="M17">
-        <v>17.96670954496264</v>
+        <v>0</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>15.95706446221935</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>18.28905082323845</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>12.49586914494104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.93705561572761</v>
+        <v>24.64314152862601</v>
       </c>
       <c r="C18">
-        <v>16.97871909007914</v>
+        <v>18.46947731916905</v>
       </c>
       <c r="D18">
-        <v>6.789909745042467</v>
+        <v>7.706231456426267</v>
       </c>
       <c r="E18">
-        <v>8.727345076849288</v>
+        <v>9.052983382688092</v>
       </c>
       <c r="F18">
-        <v>23.18212731984287</v>
+        <v>18.93065928548828</v>
       </c>
       <c r="G18">
-        <v>2.066860098819289</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
+        <v>19.34931259725919</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>3.318047949598486</v>
       </c>
       <c r="J18">
-        <v>5.498380863150514</v>
+        <v>7.797056449204394</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>10.50276909319893</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>5.421725283062441</v>
       </c>
       <c r="M18">
-        <v>17.74581112441737</v>
+        <v>0</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>15.91706565021513</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>18.06771812210326</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>12.50485952211169</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.82960266181317</v>
+        <v>24.54021738817694</v>
       </c>
       <c r="C19">
-        <v>16.91000636344856</v>
+        <v>18.41284311078217</v>
       </c>
       <c r="D19">
-        <v>6.772944392531718</v>
+        <v>7.688891211043113</v>
       </c>
       <c r="E19">
-        <v>8.71665614204549</v>
+        <v>9.042375382529386</v>
       </c>
       <c r="F19">
-        <v>23.14366521800828</v>
+        <v>18.89870244564207</v>
       </c>
       <c r="G19">
-        <v>2.067384574151466</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
+        <v>19.2998727232497</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>3.306175129603507</v>
       </c>
       <c r="J19">
-        <v>5.502239453286408</v>
+        <v>7.798976144997345</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>10.52366664814255</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>5.42553784348781</v>
       </c>
       <c r="M19">
-        <v>17.67046505185176</v>
+        <v>0</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>15.90398526674174</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>17.99659450906731</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>12.49687639518826</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.30993132116417</v>
+        <v>24.99555322624529</v>
       </c>
       <c r="C20">
-        <v>17.21723994932056</v>
+        <v>18.73632171228246</v>
       </c>
       <c r="D20">
-        <v>6.849136003662867</v>
+        <v>7.775378933453336</v>
       </c>
       <c r="E20">
-        <v>8.765072241757851</v>
+        <v>9.090605588859678</v>
       </c>
       <c r="F20">
-        <v>23.31873953655914</v>
+        <v>18.99667132493771</v>
       </c>
       <c r="G20">
-        <v>2.065029952824249</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
+        <v>19.43949133415865</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>3.366984673673092</v>
       </c>
       <c r="J20">
-        <v>5.485085726068751</v>
+        <v>7.776759799855975</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>10.40642988723995</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>5.406287616270593</v>
       </c>
       <c r="M20">
-        <v>18.00733033943111</v>
+        <v>0</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>15.96468858152341</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>18.3282560128886</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>12.49817760473637</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.86780644387108</v>
+        <v>26.47034288637162</v>
       </c>
       <c r="C21">
-        <v>18.21495242225669</v>
+        <v>19.76479203835157</v>
       </c>
       <c r="D21">
-        <v>7.10227246949488</v>
+        <v>8.060736531958044</v>
       </c>
       <c r="E21">
-        <v>8.93325864457287</v>
+        <v>9.259169607781539</v>
       </c>
       <c r="F21">
-        <v>23.94211023071544</v>
+        <v>19.36459287204785</v>
       </c>
       <c r="G21">
-        <v>2.057211267033352</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
+        <v>19.96975023783896</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>3.566241619399497</v>
       </c>
       <c r="J21">
-        <v>5.431240540039277</v>
+        <v>7.714793910766915</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>10.02866420088697</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>5.345995782766914</v>
       </c>
       <c r="M21">
-        <v>19.10091372350514</v>
+        <v>0</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>16.20172947039005</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>19.39838885672695</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>12.53380362190273</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.8447756077306</v>
+        <v>27.39453512274197</v>
       </c>
       <c r="C22">
-        <v>18.8414388469124</v>
+        <v>20.37531091797006</v>
       </c>
       <c r="D22">
-        <v>7.265411590479623</v>
+        <v>8.240782131836028</v>
       </c>
       <c r="E22">
-        <v>9.047298628820894</v>
+        <v>9.374116634898403</v>
       </c>
       <c r="F22">
-        <v>24.37605642119507</v>
+        <v>19.64739372772898</v>
       </c>
       <c r="G22">
-        <v>2.05216384256088</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
+        <v>20.3851895925675</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>3.691493997897417</v>
       </c>
       <c r="J22">
-        <v>5.399011549010321</v>
+        <v>7.688368936424347</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>9.801763014743271</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>5.310673272539009</v>
       </c>
       <c r="M22">
-        <v>19.78747737285285</v>
+        <v>0</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>16.38233568027994</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>20.06147181906874</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>12.59166986927455</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.32708372449213</v>
+        <v>26.90746178754371</v>
       </c>
       <c r="C23">
-        <v>18.50939894925447</v>
+        <v>20.01524525736139</v>
       </c>
       <c r="D23">
-        <v>7.178561657509672</v>
+        <v>8.140366031418461</v>
       </c>
       <c r="E23">
-        <v>8.986055582182154</v>
+        <v>9.3122488614936</v>
       </c>
       <c r="F23">
-        <v>24.14200234177702</v>
+        <v>19.52021734363431</v>
       </c>
       <c r="G23">
-        <v>2.054852454352486</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
+        <v>20.20634553837031</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>3.621610850247883</v>
       </c>
       <c r="J23">
-        <v>5.415932459977738</v>
+        <v>7.709656524465927</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>9.935759831385289</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>5.330527775135542</v>
       </c>
       <c r="M23">
-        <v>19.4235988277437</v>
+        <v>0</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>16.28352888182494</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>19.70309370718749</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>12.57893806790385</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.28376578616757</v>
+        <v>24.97458235404882</v>
       </c>
       <c r="C24">
-        <v>17.20049851586828</v>
+        <v>18.65987722672254</v>
       </c>
       <c r="D24">
-        <v>6.844962197577448</v>
+        <v>7.763473031472468</v>
       </c>
       <c r="E24">
-        <v>8.76239273699667</v>
+        <v>9.087831332206225</v>
       </c>
       <c r="F24">
-        <v>23.30899401897008</v>
+        <v>19.03072311891393</v>
       </c>
       <c r="G24">
-        <v>2.065158893615592</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
+        <v>19.50263361017763</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>3.358051131596441</v>
       </c>
       <c r="J24">
-        <v>5.486013807104277</v>
+        <v>7.789758236725191</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>10.43288420017542</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>5.409262001566727</v>
       </c>
       <c r="M24">
-        <v>17.98897599638181</v>
+        <v>0</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>15.96123328809384</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>18.29865056617592</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>12.52804856683814</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.89956405484812</v>
+        <v>22.70779322455223</v>
       </c>
       <c r="C25">
-        <v>15.67780614040041</v>
+        <v>17.09129898369054</v>
       </c>
       <c r="D25">
-        <v>6.476427105844765</v>
+        <v>7.3506076755771</v>
       </c>
       <c r="E25">
-        <v>8.538761055950255</v>
+        <v>8.866784868004377</v>
       </c>
       <c r="F25">
-        <v>22.52200641029815</v>
+        <v>18.57227799394351</v>
       </c>
       <c r="G25">
-        <v>2.076585034827379</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
+        <v>18.84180598088795</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>3.065900315938299</v>
       </c>
       <c r="J25">
-        <v>5.573461043205992</v>
+        <v>7.900028683319389</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>10.99351476562246</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>5.505374799551351</v>
       </c>
       <c r="M25">
-        <v>16.31845949572245</v>
+        <v>0</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>15.71702254455928</v>
+        <v>16.65770906828052</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>12.53072432476162</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_28/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_28/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1205 +421,1355 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.88791807420989</v>
+        <v>20.89636111172354</v>
       </c>
       <c r="C2">
-        <v>15.73815614643171</v>
+        <v>15.81651435818383</v>
       </c>
       <c r="D2">
-        <v>7.030847497093926</v>
+        <v>7.049839983168521</v>
       </c>
       <c r="E2">
-        <v>8.722019320853668</v>
+        <v>8.715184493700107</v>
       </c>
       <c r="F2">
-        <v>18.35823512223981</v>
+        <v>18.24200121881059</v>
       </c>
       <c r="G2">
-        <v>18.55732555020086</v>
+        <v>17.62272274883914</v>
       </c>
       <c r="I2">
-        <v>2.835899324659955</v>
+        <v>2.869531305803076</v>
       </c>
       <c r="J2">
-        <v>8.01830473653632</v>
+        <v>8.541534688290405</v>
       </c>
       <c r="K2">
-        <v>11.45758256924394</v>
+        <v>11.31727996376207</v>
       </c>
       <c r="L2">
-        <v>5.58814054129462</v>
+        <v>10.24683936855318</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>6.461694003647928</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>5.578105498602342</v>
       </c>
       <c r="O2">
-        <v>15.35682051077201</v>
+        <v>0</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>12.62528481530757</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>15.40934309022372</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>12.54160569361424</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.55168835773304</v>
+        <v>19.57420930996785</v>
       </c>
       <c r="C3">
-        <v>14.82233589255991</v>
+        <v>14.81111501201272</v>
       </c>
       <c r="D3">
-        <v>6.820246611537765</v>
+        <v>6.835246818573204</v>
       </c>
       <c r="E3">
-        <v>8.635185254619325</v>
+        <v>8.630883126543477</v>
       </c>
       <c r="F3">
-        <v>18.21044150762554</v>
+        <v>18.11587450404636</v>
       </c>
       <c r="G3">
-        <v>18.34633391190719</v>
+        <v>17.45786398715754</v>
       </c>
       <c r="I3">
-        <v>2.678462962693093</v>
+        <v>2.729444555348538</v>
       </c>
       <c r="J3">
-        <v>8.098113800349655</v>
+        <v>8.586899054619824</v>
       </c>
       <c r="K3">
-        <v>11.76615298259404</v>
+        <v>11.61146662162321</v>
       </c>
       <c r="L3">
-        <v>5.647690577450465</v>
+        <v>10.4679456557374</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>6.728719217804056</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>5.6389351773295</v>
       </c>
       <c r="O3">
-        <v>14.49065760140203</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>12.68657908000782</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>14.52756133955773</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>12.61253591886067</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.68212887790099</v>
+        <v>18.71398393266811</v>
       </c>
       <c r="C4">
-        <v>14.234594739274</v>
+        <v>14.16471209811697</v>
       </c>
       <c r="D4">
-        <v>6.69125678977102</v>
+        <v>6.704073849027475</v>
       </c>
       <c r="E4">
-        <v>8.587339540670852</v>
+        <v>8.584764742382937</v>
       </c>
       <c r="F4">
-        <v>18.13492358963835</v>
+        <v>18.0514470199648</v>
       </c>
       <c r="G4">
-        <v>18.23796827472453</v>
+        <v>17.37905252555985</v>
       </c>
       <c r="I4">
-        <v>2.579212667018829</v>
+        <v>2.641273375799578</v>
       </c>
       <c r="J4">
-        <v>8.151644950782497</v>
+        <v>8.61697395228412</v>
       </c>
       <c r="K4">
-        <v>11.96106574028499</v>
+        <v>11.79648671848087</v>
       </c>
       <c r="L4">
-        <v>5.686686503099301</v>
+        <v>10.61107215681917</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>6.910978298721495</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>5.678674514205292</v>
       </c>
       <c r="O4">
-        <v>13.93442345461848</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>12.73479686863007</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>13.96091390914767</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>12.66479307764216</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.31456640092726</v>
+        <v>18.35042890771567</v>
       </c>
       <c r="C5">
-        <v>14.00129977669083</v>
+        <v>13.90652785237676</v>
       </c>
       <c r="D5">
-        <v>6.640234523904059</v>
+        <v>6.6522064718878</v>
       </c>
       <c r="E5">
-        <v>8.569209114985963</v>
+        <v>8.567380839480185</v>
       </c>
       <c r="F5">
-        <v>18.10087745149776</v>
+        <v>18.02150368372894</v>
       </c>
       <c r="G5">
-        <v>18.18616491339335</v>
+        <v>17.33943907842677</v>
       </c>
       <c r="I5">
-        <v>2.53882506156735</v>
+        <v>2.605767268440827</v>
       </c>
       <c r="J5">
-        <v>8.172613390234718</v>
+        <v>8.627884876664419</v>
       </c>
       <c r="K5">
-        <v>12.03861196660882</v>
+        <v>11.86983421336163</v>
       </c>
       <c r="L5">
-        <v>5.702849197126122</v>
+        <v>10.66755450087395</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>6.988865596481608</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>5.695137375894669</v>
       </c>
       <c r="O5">
-        <v>13.70459824088274</v>
+        <v>0</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>12.75195227595791</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>13.72658227444553</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>12.68324062974374</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.25173439721053</v>
+        <v>18.2882914372051</v>
       </c>
       <c r="C6">
-        <v>13.97750883672102</v>
+        <v>13.87846085447346</v>
       </c>
       <c r="D6">
-        <v>6.633469854510228</v>
+        <v>6.645269215658023</v>
       </c>
       <c r="E6">
-        <v>8.566284025400828</v>
+        <v>8.564582977350096</v>
       </c>
       <c r="F6">
-        <v>18.08687099809014</v>
+        <v>18.00831781298814</v>
       </c>
       <c r="G6">
-        <v>18.16218669073398</v>
+        <v>17.31739239254298</v>
       </c>
       <c r="I6">
-        <v>2.533172764518695</v>
+        <v>2.601285711513747</v>
       </c>
       <c r="J6">
-        <v>8.173781648351939</v>
+        <v>8.627419365937232</v>
       </c>
       <c r="K6">
-        <v>12.04760753322643</v>
+        <v>11.87822640700396</v>
       </c>
       <c r="L6">
-        <v>5.70516837359827</v>
+        <v>10.67256862070759</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>7.001119144410289</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>5.697514991493659</v>
       </c>
       <c r="O6">
-        <v>13.66952775473947</v>
+        <v>0</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>12.74879301709226</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>13.69067630672586</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>12.68039415767255</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.67441929120561</v>
+        <v>18.70616549820816</v>
       </c>
       <c r="C7">
-        <v>14.2724806984965</v>
+        <v>14.19621274677017</v>
       </c>
       <c r="D7">
-        <v>6.695149698095254</v>
+        <v>6.71120727400594</v>
       </c>
       <c r="E7">
-        <v>8.587103000398807</v>
+        <v>8.585763381047736</v>
       </c>
       <c r="F7">
-        <v>18.11110101810968</v>
+        <v>18.01523182903688</v>
       </c>
       <c r="G7">
-        <v>18.19456144205994</v>
+        <v>17.41803173125399</v>
       </c>
       <c r="I7">
-        <v>2.581254514126573</v>
+        <v>2.643811820029311</v>
       </c>
       <c r="J7">
-        <v>8.145423290893618</v>
+        <v>8.577937533314174</v>
       </c>
       <c r="K7">
-        <v>11.95126167363121</v>
+        <v>11.78364058378514</v>
       </c>
       <c r="L7">
-        <v>5.685811712440233</v>
+        <v>10.59615993740757</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>6.90804365199351</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>5.677624681872611</v>
       </c>
       <c r="O7">
-        <v>13.94054947042803</v>
+        <v>0</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>12.7181945480653</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>13.96671961754063</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>12.63915896374939</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.43397165134856</v>
+        <v>20.44658110328699</v>
       </c>
       <c r="C8">
-        <v>15.47835663871709</v>
+        <v>15.50833779663883</v>
       </c>
       <c r="D8">
-        <v>6.964044238141934</v>
+        <v>6.992252876732204</v>
       </c>
       <c r="E8">
-        <v>8.690973520713822</v>
+        <v>8.689029408527777</v>
       </c>
       <c r="F8">
-        <v>18.27358352277535</v>
+        <v>18.12350403101754</v>
       </c>
       <c r="G8">
-        <v>18.42452049672306</v>
+        <v>17.7774481124002</v>
       </c>
       <c r="I8">
-        <v>2.784919784953212</v>
+        <v>2.824109330073274</v>
       </c>
       <c r="J8">
-        <v>8.036244103799786</v>
+        <v>8.440824866726716</v>
       </c>
       <c r="K8">
-        <v>11.54843481378876</v>
+        <v>11.39335800739313</v>
       </c>
       <c r="L8">
-        <v>5.606730114511092</v>
+        <v>10.29720134178202</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>6.537973300543795</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>5.596514359951834</v>
       </c>
       <c r="O8">
-        <v>15.07459189760043</v>
+        <v>0</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>12.62190034940983</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>15.12137388510619</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>12.51127482182926</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.4998495473344</v>
+        <v>23.48046327826138</v>
       </c>
       <c r="C9">
-        <v>17.57239608914866</v>
+        <v>17.8033758797301</v>
       </c>
       <c r="D9">
-        <v>7.482973386335674</v>
+        <v>7.524536471447127</v>
       </c>
       <c r="E9">
-        <v>8.938347043879803</v>
+        <v>8.932108451069769</v>
       </c>
       <c r="F9">
-        <v>18.75762173823324</v>
+        <v>18.53046082700665</v>
       </c>
       <c r="G9">
-        <v>19.12376590978618</v>
+        <v>18.4355881176618</v>
       </c>
       <c r="I9">
-        <v>3.161261163132135</v>
+        <v>3.158203164971822</v>
       </c>
       <c r="J9">
-        <v>7.87161401997303</v>
+        <v>8.317279885566784</v>
       </c>
       <c r="K9">
-        <v>10.82131243851413</v>
+        <v>10.69242101394636</v>
       </c>
       <c r="L9">
-        <v>5.473494321838391</v>
+        <v>9.801788107381872</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>5.981035071254967</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>5.459640340917599</v>
       </c>
       <c r="O9">
-        <v>17.21527689551006</v>
+        <v>0</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>12.55258922796803</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>17.26872465846385</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>12.39782269876624</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.51572580825924</v>
+        <v>25.47429885717832</v>
       </c>
       <c r="C10">
-        <v>19.00095912027362</v>
+        <v>19.3356042751751</v>
       </c>
       <c r="D10">
-        <v>7.862048377670086</v>
+        <v>7.931022027813972</v>
       </c>
       <c r="E10">
-        <v>9.147029339589666</v>
+        <v>9.145445003333835</v>
       </c>
       <c r="F10">
-        <v>19.18195884401498</v>
+        <v>18.81721152228799</v>
       </c>
       <c r="G10">
-        <v>19.72868263666157</v>
+        <v>19.47045612548747</v>
       </c>
       <c r="I10">
-        <v>3.427814359335312</v>
+        <v>3.393978319966368</v>
       </c>
       <c r="J10">
-        <v>7.77324917829367</v>
+        <v>8.052955797510574</v>
       </c>
       <c r="K10">
-        <v>10.30839830644396</v>
+        <v>10.17404944213007</v>
       </c>
       <c r="L10">
-        <v>5.388152232116564</v>
+        <v>9.461348981594574</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>5.659686817104643</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>5.370259793467456</v>
       </c>
       <c r="O10">
-        <v>18.68281494170713</v>
+        <v>0</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>12.55537337758045</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>18.75089470284677</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>12.30334579452083</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.37894673093374</v>
+        <v>26.32663956526288</v>
       </c>
       <c r="C11">
-        <v>19.6730539022624</v>
+        <v>20.00659887694324</v>
       </c>
       <c r="D11">
-        <v>8.039078154809733</v>
+        <v>8.14987245466266</v>
       </c>
       <c r="E11">
-        <v>9.247909507129989</v>
+        <v>9.260896927541793</v>
       </c>
       <c r="F11">
-        <v>19.35808114883039</v>
+        <v>18.8047988229192</v>
       </c>
       <c r="G11">
-        <v>19.96664770863937</v>
+        <v>20.69478708832352</v>
       </c>
       <c r="I11">
-        <v>3.550841595777147</v>
+        <v>3.501633407054166</v>
       </c>
       <c r="J11">
-        <v>7.724048216205281</v>
+        <v>7.638899159803259</v>
       </c>
       <c r="K11">
-        <v>10.06242162514757</v>
+        <v>9.894770986491876</v>
       </c>
       <c r="L11">
-        <v>5.350653855583425</v>
+        <v>9.292040681143204</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>5.483872484511842</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>5.328910724172229</v>
       </c>
       <c r="O11">
-        <v>19.32555520341572</v>
+        <v>0</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>12.54474417349592</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>19.39615060441232</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>12.15023762716735</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>26.70038821937683</v>
+        <v>26.64386104493978</v>
       </c>
       <c r="C12">
-        <v>19.89595054078174</v>
+        <v>20.22400261274535</v>
       </c>
       <c r="D12">
-        <v>8.102446423286629</v>
+        <v>8.232695417936474</v>
       </c>
       <c r="E12">
-        <v>9.286895211678543</v>
+        <v>9.306999441245187</v>
       </c>
       <c r="F12">
-        <v>19.44621236800032</v>
+        <v>18.80503831832183</v>
       </c>
       <c r="G12">
-        <v>20.09401560277477</v>
+        <v>21.2924020987932</v>
       </c>
       <c r="I12">
-        <v>3.595038865193463</v>
+        <v>3.538913546896651</v>
       </c>
       <c r="J12">
-        <v>7.712068074091523</v>
+        <v>7.466163662719392</v>
       </c>
       <c r="K12">
-        <v>9.97995091537379</v>
+        <v>9.793912136294034</v>
       </c>
       <c r="L12">
-        <v>5.337845123892995</v>
+        <v>9.233404012148494</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>5.424015006899008</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>5.314347250959218</v>
       </c>
       <c r="O12">
-        <v>19.55858743087555</v>
+        <v>0</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>12.55742025784271</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>19.62980228016793</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>12.0954334320597</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26.63182974098585</v>
+        <v>26.57620502742023</v>
       </c>
       <c r="C13">
-        <v>19.84271970967255</v>
+        <v>20.17226824561475</v>
       </c>
       <c r="D13">
-        <v>8.088144996098954</v>
+        <v>8.214057386569021</v>
       </c>
       <c r="E13">
-        <v>9.278450795296854</v>
+        <v>9.296948961651189</v>
       </c>
       <c r="F13">
-        <v>19.43085277137808</v>
+        <v>18.80918966428644</v>
       </c>
       <c r="G13">
-        <v>20.07308084424807</v>
+        <v>21.16583744664457</v>
       </c>
       <c r="I13">
-        <v>3.58506016803083</v>
+        <v>3.530249390396746</v>
       </c>
       <c r="J13">
-        <v>7.715750264388775</v>
+        <v>7.504706490240193</v>
       </c>
       <c r="K13">
-        <v>9.999657474332432</v>
+        <v>9.817382907200514</v>
       </c>
       <c r="L13">
-        <v>5.340769449234894</v>
+        <v>9.246802200632308</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>5.438895614565503</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>5.317655470972428</v>
       </c>
       <c r="O13">
-        <v>19.50756291649611</v>
+        <v>0</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>12.55747011144195</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>19.57868410697634</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>12.11044810768582</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.40568596869945</v>
+        <v>26.3530290412491</v>
       </c>
       <c r="C14">
-        <v>19.68915919177488</v>
+        <v>20.0223914958802</v>
       </c>
       <c r="D14">
-        <v>8.044012372270959</v>
+        <v>8.156340983756554</v>
       </c>
       <c r="E14">
-        <v>9.251095535370455</v>
+        <v>9.264635595938829</v>
       </c>
       <c r="F14">
-        <v>19.36687275435436</v>
+        <v>18.80662505910457</v>
       </c>
       <c r="G14">
-        <v>19.97989546007548</v>
+        <v>20.74476292162449</v>
       </c>
       <c r="I14">
-        <v>3.554275544557694</v>
+        <v>3.504423026484826</v>
       </c>
       <c r="J14">
-        <v>7.723529631048373</v>
+        <v>7.62532812662495</v>
       </c>
       <c r="K14">
-        <v>10.05645882747151</v>
+        <v>9.887227108015091</v>
       </c>
       <c r="L14">
-        <v>5.349669991924265</v>
+        <v>9.287559798342398</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>5.479784843605538</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>5.327785363778969</v>
       </c>
       <c r="O14">
-        <v>19.34437355292699</v>
+        <v>0</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>12.54696707238615</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>19.41503743757647</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>12.14710833833949</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.26552810355189</v>
+        <v>26.2146988347598</v>
       </c>
       <c r="C15">
-        <v>19.60537670557648</v>
+        <v>19.94001931810216</v>
       </c>
       <c r="D15">
-        <v>8.018270350924141</v>
+        <v>8.122718299528902</v>
       </c>
       <c r="E15">
-        <v>9.234469500059154</v>
+        <v>9.245185069255358</v>
       </c>
       <c r="F15">
-        <v>19.32061227607332</v>
+        <v>18.7961533884125</v>
       </c>
       <c r="G15">
-        <v>19.91005410789922</v>
+        <v>20.48679005416139</v>
       </c>
       <c r="I15">
-        <v>3.536407834720017</v>
+        <v>3.489944483766565</v>
       </c>
       <c r="J15">
-        <v>7.726166612101366</v>
+        <v>7.695439970889861</v>
       </c>
       <c r="K15">
-        <v>10.08749134415573</v>
+        <v>9.926361147281519</v>
       </c>
       <c r="L15">
-        <v>5.35481499344159</v>
+        <v>9.31089503734259</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>5.50091352089061</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>5.333659854468349</v>
       </c>
       <c r="O15">
-        <v>19.24588491944634</v>
+        <v>0</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>12.53514329265593</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>19.31617082143648</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>12.16275573463125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.45227173623969</v>
+        <v>25.41168022024927</v>
       </c>
       <c r="C16">
-        <v>19.04936962513712</v>
+        <v>19.38214908300525</v>
       </c>
       <c r="D16">
-        <v>7.861811448583092</v>
+        <v>7.928317210338866</v>
       </c>
       <c r="E16">
-        <v>9.140722442243607</v>
+        <v>9.13840606260486</v>
       </c>
       <c r="F16">
-        <v>19.10775611646514</v>
+        <v>18.75524809562646</v>
       </c>
       <c r="G16">
-        <v>19.60072431686763</v>
+        <v>19.29176182454593</v>
       </c>
       <c r="I16">
-        <v>3.427336186047918</v>
+        <v>3.397411969325181</v>
       </c>
       <c r="J16">
-        <v>7.757596543658715</v>
+        <v>8.06043811905009</v>
       </c>
       <c r="K16">
-        <v>10.29204264363774</v>
+        <v>10.16403424061773</v>
       </c>
       <c r="L16">
-        <v>5.387565120841157</v>
+        <v>9.455908904549483</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>5.641673915862672</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>5.369984697514608</v>
       </c>
       <c r="O16">
-        <v>18.65832415557745</v>
+        <v>0</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>12.50823653574485</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>18.7258147746428</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>12.2659545499493</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>24.9404275809897</v>
+        <v>24.90596846496727</v>
       </c>
       <c r="C17">
-        <v>18.70124262115261</v>
+        <v>19.02306056609612</v>
       </c>
       <c r="D17">
-        <v>7.765370214797129</v>
+        <v>7.814793488076247</v>
       </c>
       <c r="E17">
-        <v>9.084702947681357</v>
+        <v>9.077102118626268</v>
       </c>
       <c r="F17">
-        <v>18.9819507744862</v>
+        <v>18.70758220121219</v>
       </c>
       <c r="G17">
-        <v>19.41753124831324</v>
+        <v>18.7339524811936</v>
       </c>
       <c r="I17">
-        <v>3.360062891749752</v>
+        <v>3.339769200480736</v>
       </c>
       <c r="J17">
-        <v>7.778610248247871</v>
+        <v>8.231082712137187</v>
       </c>
       <c r="K17">
-        <v>10.41927827480938</v>
+        <v>10.3040349785405</v>
       </c>
       <c r="L17">
-        <v>5.408469539735389</v>
+        <v>9.544675454082004</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>5.725957580714561</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>5.392628570438093</v>
       </c>
       <c r="O17">
-        <v>18.28905082323845</v>
+        <v>0</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>12.49586914494104</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>18.35400008222076</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>12.31155865670298</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.64314152862601</v>
+        <v>24.61210558457177</v>
       </c>
       <c r="C18">
-        <v>18.46947731916905</v>
+        <v>18.78168791615887</v>
       </c>
       <c r="D18">
-        <v>7.706231456426267</v>
+        <v>7.748133073201006</v>
       </c>
       <c r="E18">
-        <v>9.052983382688092</v>
+        <v>9.043295201597141</v>
       </c>
       <c r="F18">
-        <v>18.93065928548828</v>
+        <v>18.69089567832953</v>
       </c>
       <c r="G18">
-        <v>19.34931259725919</v>
+        <v>18.51046028014997</v>
       </c>
       <c r="I18">
-        <v>3.318047949598486</v>
+        <v>3.30201572501149</v>
       </c>
       <c r="J18">
-        <v>7.797056449204394</v>
+        <v>8.311898749170025</v>
       </c>
       <c r="K18">
-        <v>10.50276909319893</v>
+        <v>10.39103302109237</v>
       </c>
       <c r="L18">
-        <v>5.421725283062441</v>
+        <v>9.600943419503924</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>5.782333475315548</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>5.406697505586274</v>
       </c>
       <c r="O18">
-        <v>18.06771812210326</v>
+        <v>0</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>12.50485952211169</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>18.13100579240913</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>12.34563035902575</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.54021738817694</v>
+        <v>24.51036048217334</v>
       </c>
       <c r="C19">
-        <v>18.41284311078217</v>
+        <v>18.72090774026129</v>
       </c>
       <c r="D19">
-        <v>7.688891211043113</v>
+        <v>7.728571214477746</v>
       </c>
       <c r="E19">
-        <v>9.042375382529386</v>
+        <v>9.032141035887983</v>
       </c>
       <c r="F19">
-        <v>18.89870244564207</v>
+        <v>18.66947836052702</v>
       </c>
       <c r="G19">
-        <v>19.2998727232497</v>
+        <v>18.41874428080217</v>
       </c>
       <c r="I19">
-        <v>3.306175129603507</v>
+        <v>3.292355858799497</v>
       </c>
       <c r="J19">
-        <v>7.798976144997345</v>
+        <v>8.331294443225133</v>
       </c>
       <c r="K19">
-        <v>10.52366664814255</v>
+        <v>10.41358087988128</v>
       </c>
       <c r="L19">
-        <v>5.42553784348781</v>
+        <v>9.615635227836917</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>5.795012917558815</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>5.410780303608836</v>
       </c>
       <c r="O19">
-        <v>17.99659450906731</v>
+        <v>0</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>12.49687639518826</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>18.05917881525112</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>12.34531176894105</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.99555322624529</v>
+        <v>24.96044449486649</v>
       </c>
       <c r="C20">
-        <v>18.73632171228246</v>
+        <v>19.05971043843833</v>
       </c>
       <c r="D20">
-        <v>7.775378933453336</v>
+        <v>7.826393972647551</v>
       </c>
       <c r="E20">
-        <v>9.090605588859678</v>
+        <v>9.083467572386391</v>
       </c>
       <c r="F20">
-        <v>18.99667132493771</v>
+        <v>18.71495203407974</v>
       </c>
       <c r="G20">
-        <v>19.43949133415865</v>
+        <v>18.78949033764554</v>
       </c>
       <c r="I20">
-        <v>3.366984673673092</v>
+        <v>3.345602125433237</v>
       </c>
       <c r="J20">
-        <v>7.776759799855975</v>
+        <v>8.215595875698751</v>
       </c>
       <c r="K20">
-        <v>10.40642988723995</v>
+        <v>10.29000786285495</v>
       </c>
       <c r="L20">
-        <v>5.406287616270593</v>
+        <v>9.535675508376977</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>5.717693560506558</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>5.390275915058595</v>
       </c>
       <c r="O20">
-        <v>18.3282560128886</v>
+        <v>0</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>12.49817760473637</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>18.39351672409532</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>12.30845043269711</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.47034288637162</v>
+        <v>26.41641483108889</v>
       </c>
       <c r="C21">
-        <v>19.76479203835157</v>
+        <v>20.08095489549818</v>
       </c>
       <c r="D21">
-        <v>8.060736531958044</v>
+        <v>8.187460588851128</v>
       </c>
       <c r="E21">
-        <v>9.259169607781539</v>
+        <v>9.278505075994241</v>
       </c>
       <c r="F21">
-        <v>19.36459287204785</v>
+        <v>18.74289573718127</v>
       </c>
       <c r="G21">
-        <v>19.96975023783896</v>
+        <v>21.11129328291876</v>
       </c>
       <c r="I21">
-        <v>3.566241619399497</v>
+        <v>3.514866600166502</v>
       </c>
       <c r="J21">
-        <v>7.714793910766915</v>
+        <v>7.494381065431989</v>
       </c>
       <c r="K21">
-        <v>10.02866420088697</v>
+        <v>9.846681449153587</v>
       </c>
       <c r="L21">
-        <v>5.345995782766914</v>
+        <v>9.265032366109722</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>5.444326049213909</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>5.32308065268561</v>
       </c>
       <c r="O21">
-        <v>19.39838885672695</v>
+        <v>0</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>12.53380362190273</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>19.46795712901537</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>12.08695019778141</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.39453512274197</v>
+        <v>27.3286707639935</v>
       </c>
       <c r="C22">
-        <v>20.37531091797006</v>
+        <v>20.68178378427879</v>
       </c>
       <c r="D22">
-        <v>8.240782131836028</v>
+        <v>8.420331619607815</v>
       </c>
       <c r="E22">
-        <v>9.374116634898403</v>
+        <v>9.412886734948859</v>
       </c>
       <c r="F22">
-        <v>19.64739372772898</v>
+        <v>18.78343011292187</v>
       </c>
       <c r="G22">
-        <v>20.3851895925675</v>
+        <v>22.7936141121525</v>
       </c>
       <c r="I22">
-        <v>3.691493997897417</v>
+        <v>3.619719690027793</v>
       </c>
       <c r="J22">
-        <v>7.688368936424347</v>
+        <v>7.076888443063524</v>
       </c>
       <c r="K22">
-        <v>9.801763014743271</v>
+        <v>9.566970307534525</v>
       </c>
       <c r="L22">
-        <v>5.310673272539009</v>
+        <v>9.107198160379056</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>5.288771324512031</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>5.28280636158786</v>
       </c>
       <c r="O22">
-        <v>20.06147181906874</v>
+        <v>0</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>12.59166986927455</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>20.13332817625277</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>11.95693790041304</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>26.90746178754371</v>
+        <v>26.84816279356529</v>
       </c>
       <c r="C23">
-        <v>20.01524525736139</v>
+        <v>20.33860613308865</v>
       </c>
       <c r="D23">
-        <v>8.140366031418461</v>
+        <v>8.284230407396441</v>
       </c>
       <c r="E23">
-        <v>9.3122488614936</v>
+        <v>9.337406270584175</v>
       </c>
       <c r="F23">
-        <v>19.52021734363431</v>
+        <v>18.8171873659505</v>
       </c>
       <c r="G23">
-        <v>20.20634553837031</v>
+        <v>21.7353424751015</v>
       </c>
       <c r="I23">
-        <v>3.621610850247883</v>
+        <v>3.560189626200664</v>
       </c>
       <c r="J23">
-        <v>7.709656524465927</v>
+        <v>7.354865278699386</v>
       </c>
       <c r="K23">
-        <v>9.935759831385289</v>
+        <v>9.734764915250745</v>
       </c>
       <c r="L23">
-        <v>5.330527775135542</v>
+        <v>9.199215393025625</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>5.393031441807218</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>5.305791905561725</v>
       </c>
       <c r="O23">
-        <v>19.70309370718749</v>
+        <v>0</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>12.57893806790385</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>19.77468395995538</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>12.06897648100773</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.97458235404882</v>
+        <v>24.9396812499107</v>
       </c>
       <c r="C24">
-        <v>18.65987722672254</v>
+        <v>18.98329977320008</v>
       </c>
       <c r="D24">
-        <v>7.763473031472468</v>
+        <v>7.813908742150248</v>
       </c>
       <c r="E24">
-        <v>9.087831332206225</v>
+        <v>9.080478690350708</v>
       </c>
       <c r="F24">
-        <v>19.03072311891393</v>
+        <v>18.7510637616119</v>
       </c>
       <c r="G24">
-        <v>19.50263361017763</v>
+        <v>18.83696860619651</v>
       </c>
       <c r="I24">
-        <v>3.358051131596441</v>
+        <v>3.335089178362564</v>
       </c>
       <c r="J24">
-        <v>7.789758236725191</v>
+        <v>8.233320057669763</v>
       </c>
       <c r="K24">
-        <v>10.43288420017542</v>
+        <v>10.31434436971095</v>
       </c>
       <c r="L24">
-        <v>5.409262001566727</v>
+        <v>9.551116722746288</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>5.739408878231923</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>5.393267941374178</v>
       </c>
       <c r="O24">
-        <v>18.29865056617592</v>
+        <v>0</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>12.52804856683814</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>18.3640069286336</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>12.33949980056511</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.70779322455223</v>
+        <v>22.69693462838732</v>
       </c>
       <c r="C25">
-        <v>17.09129898369054</v>
+        <v>17.27738254839331</v>
       </c>
       <c r="D25">
-        <v>7.3506076755771</v>
+        <v>7.383874834860737</v>
       </c>
       <c r="E25">
-        <v>8.866784868004377</v>
+        <v>8.859839957061025</v>
       </c>
       <c r="F25">
-        <v>18.57227799394351</v>
+        <v>18.38685151319432</v>
       </c>
       <c r="G25">
-        <v>18.84180598088795</v>
+        <v>18.04933515279091</v>
       </c>
       <c r="I25">
-        <v>3.065900315938299</v>
+        <v>3.076208851405812</v>
       </c>
       <c r="J25">
-        <v>7.900028683319389</v>
+        <v>8.383730053089373</v>
       </c>
       <c r="K25">
-        <v>10.99351476562246</v>
+        <v>10.86518725570074</v>
       </c>
       <c r="L25">
-        <v>5.505374799551351</v>
+        <v>9.918978931608136</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>6.102922504290528</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>5.492881627012613</v>
       </c>
       <c r="O25">
-        <v>16.65770906828052</v>
+        <v>0</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>12.53072432476162</v>
+        <v>16.70465885036852</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>12.40419687602916</v>
       </c>
     </row>
   </sheetData>
